--- a/raw data/20190708_excel tsh_2019_data.xlsx
+++ b/raw data/20190708_excel tsh_2019_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbean 1/Dropbox/TSH_2019/raw data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE2A9F-C014-CD44-8D6B-238D9D194CB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="1460" windowWidth="40740" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37900" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,25 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$R$1:$R$507</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nigel Bean</author>
   </authors>
   <commentList>
-    <comment ref="C326" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C326" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6557" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6564" uniqueCount="687">
   <si>
     <t>Paper</t>
   </si>
@@ -2143,20 +2137,26 @@
     <t>High</t>
   </si>
   <si>
-    <t>Sophistication</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
     <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t>FT4_Sophistication</t>
+  </si>
+  <si>
+    <t>TSH_Sophistication</t>
+  </si>
+  <si>
+    <t>T3_Sophistication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3359,24 +3359,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" customWidth="1"/>
@@ -3384,7 +3384,8 @@
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="161.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
@@ -3417,7 +3418,7 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -3435,7 +3436,7 @@
         <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="O1" t="s">
         <v>27</v>
@@ -3453,7 +3454,7 @@
         <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -4719,7 +4720,7 @@
         <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I24" t="s">
         <v>52</v>
@@ -4737,7 +4738,7 @@
         <v>54</v>
       </c>
       <c r="N24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O24" t="s">
         <v>52</v>
@@ -4813,7 +4814,7 @@
         <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I26" t="s">
         <v>52</v>
@@ -4831,7 +4832,7 @@
         <v>58</v>
       </c>
       <c r="N26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O26" t="s">
         <v>52</v>
@@ -4904,7 +4905,7 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I28" t="s">
         <v>52</v>
@@ -4922,7 +4923,7 @@
         <v>0.66</v>
       </c>
       <c r="N28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O28" t="s">
         <v>52</v>
@@ -4995,7 +4996,7 @@
         <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I31" t="s">
         <v>52</v>
@@ -5013,7 +5014,7 @@
         <v>64</v>
       </c>
       <c r="N31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O31" t="s">
         <v>52</v>
@@ -5086,7 +5087,7 @@
         <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I33" t="s">
         <v>52</v>
@@ -5104,7 +5105,7 @@
         <v>68</v>
       </c>
       <c r="N33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O33" t="s">
         <v>52</v>
@@ -5180,7 +5181,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I35" t="s">
         <v>52</v>
@@ -5198,7 +5199,7 @@
         <v>0.71</v>
       </c>
       <c r="N35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O35" t="s">
         <v>52</v>
@@ -5603,7 +5604,7 @@
         <v>0.05</v>
       </c>
       <c r="H46" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I46" t="s">
         <v>82</v>
@@ -5621,7 +5622,7 @@
         <v>0.02</v>
       </c>
       <c r="N46" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O46" t="s">
         <v>82</v>
@@ -5697,7 +5698,7 @@
         <v>88</v>
       </c>
       <c r="H49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I49" t="s">
         <v>82</v>
@@ -5715,7 +5716,7 @@
         <v>92</v>
       </c>
       <c r="N49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O49" t="s">
         <v>82</v>
@@ -5838,7 +5839,7 @@
         <v>97</v>
       </c>
       <c r="H52" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I52" t="s">
         <v>82</v>
@@ -5856,7 +5857,7 @@
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O52" t="s">
         <v>82</v>
@@ -5979,7 +5980,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H55" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I55" t="s">
         <v>82</v>
@@ -5997,7 +5998,7 @@
         <v>0.17</v>
       </c>
       <c r="N55" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O55" t="s">
         <v>82</v>
@@ -6393,7 +6394,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H68" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I68" t="s">
         <v>82</v>
@@ -6411,7 +6412,7 @@
         <v>0.24</v>
       </c>
       <c r="N68" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O68" t="s">
         <v>82</v>
@@ -6487,7 +6488,7 @@
         <v>0.01</v>
       </c>
       <c r="H70" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I70" t="s">
         <v>82</v>
@@ -6505,7 +6506,7 @@
         <v>0.06</v>
       </c>
       <c r="N70" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O70" t="s">
         <v>82</v>
@@ -6581,7 +6582,7 @@
         <v>1E-3</v>
       </c>
       <c r="H72" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I72" t="s">
         <v>82</v>
@@ -6599,7 +6600,7 @@
         <v>0.01</v>
       </c>
       <c r="N72" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O72" t="s">
         <v>82</v>
@@ -6675,7 +6676,7 @@
         <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I74" t="s">
         <v>82</v>
@@ -6693,7 +6694,7 @@
         <v>0.02</v>
       </c>
       <c r="N74" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O74" t="s">
         <v>82</v>
@@ -6769,7 +6770,7 @@
         <v>0.19</v>
       </c>
       <c r="H76" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I76" t="s">
         <v>82</v>
@@ -6787,7 +6788,7 @@
         <v>0.53</v>
       </c>
       <c r="N76" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O76" t="s">
         <v>82</v>
@@ -6863,7 +6864,7 @@
         <v>1E-3</v>
       </c>
       <c r="H78" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I78" t="s">
         <v>82</v>
@@ -6881,7 +6882,7 @@
         <v>0.01</v>
       </c>
       <c r="N78" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O78" t="s">
         <v>82</v>
@@ -6957,7 +6958,7 @@
         <v>0.01</v>
       </c>
       <c r="H80" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I80" t="s">
         <v>82</v>
@@ -6975,7 +6976,7 @@
         <v>0.1</v>
       </c>
       <c r="N80" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O80" t="s">
         <v>82</v>
@@ -8736,6 +8737,9 @@
       <c r="U111" t="s">
         <v>72</v>
       </c>
+      <c r="V111" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" t="s">
@@ -9919,7 +9923,7 @@
         <v>206</v>
       </c>
       <c r="H130" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I130" t="s">
         <v>203</v>
@@ -9937,7 +9941,7 @@
         <v>210</v>
       </c>
       <c r="N130" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O130" t="s">
         <v>203</v>
@@ -10013,7 +10017,7 @@
         <v>206</v>
       </c>
       <c r="H132" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I132" t="s">
         <v>203</v>
@@ -10031,7 +10035,7 @@
         <v>206</v>
       </c>
       <c r="N132" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O132" t="s">
         <v>203</v>
@@ -10107,7 +10111,7 @@
         <v>206</v>
       </c>
       <c r="H134" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I134" t="s">
         <v>203</v>
@@ -10125,7 +10129,7 @@
         <v>213</v>
       </c>
       <c r="N134" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O134" t="s">
         <v>203</v>
@@ -10201,7 +10205,7 @@
         <v>207</v>
       </c>
       <c r="H136" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I136" t="s">
         <v>203</v>
@@ -10219,7 +10223,7 @@
         <v>215</v>
       </c>
       <c r="N136" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O136" t="s">
         <v>203</v>
@@ -10295,7 +10299,7 @@
         <v>208</v>
       </c>
       <c r="H138" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I138" t="s">
         <v>203</v>
@@ -10313,7 +10317,7 @@
         <v>217</v>
       </c>
       <c r="N138" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O138" t="s">
         <v>203</v>
@@ -10389,7 +10393,7 @@
         <v>206</v>
       </c>
       <c r="H140" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I140" t="s">
         <v>203</v>
@@ -10407,7 +10411,7 @@
         <v>226</v>
       </c>
       <c r="N140" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O140" t="s">
         <v>203</v>
@@ -10483,7 +10487,7 @@
         <v>206</v>
       </c>
       <c r="H142" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I142" t="s">
         <v>203</v>
@@ -10501,7 +10505,7 @@
         <v>206</v>
       </c>
       <c r="N142" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O142" t="s">
         <v>203</v>
@@ -10577,7 +10581,7 @@
         <v>220</v>
       </c>
       <c r="H144" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I144" t="s">
         <v>203</v>
@@ -10595,7 +10599,7 @@
         <v>229</v>
       </c>
       <c r="N144" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O144" t="s">
         <v>203</v>
@@ -10671,7 +10675,7 @@
         <v>222</v>
       </c>
       <c r="H146" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I146" t="s">
         <v>203</v>
@@ -10689,7 +10693,7 @@
         <v>231</v>
       </c>
       <c r="N146" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O146" t="s">
         <v>203</v>
@@ -10765,7 +10769,7 @@
         <v>224</v>
       </c>
       <c r="H148" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I148" t="s">
         <v>203</v>
@@ -10783,7 +10787,7 @@
         <v>233</v>
       </c>
       <c r="N148" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O148" t="s">
         <v>203</v>
@@ -10859,7 +10863,7 @@
         <v>0.189</v>
       </c>
       <c r="H151" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I151" t="s">
         <v>82</v>
@@ -10877,7 +10881,7 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="N151" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O151" t="s">
         <v>82</v>
@@ -10906,7 +10910,7 @@
         <v>0.21</v>
       </c>
       <c r="H152" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I152" t="s">
         <v>82</v>
@@ -10924,7 +10928,7 @@
         <v>0.44</v>
       </c>
       <c r="N152" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O152" t="s">
         <v>82</v>
@@ -10953,7 +10957,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="H153" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I153" t="s">
         <v>82</v>
@@ -10971,7 +10975,7 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="N153" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O153" t="s">
         <v>82</v>
@@ -11141,7 +11145,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H157" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I157" t="s">
         <v>82</v>
@@ -11159,7 +11163,7 @@
         <v>0.01</v>
       </c>
       <c r="N157" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O157" t="s">
         <v>82</v>
@@ -11188,7 +11192,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H158" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I158" t="s">
         <v>82</v>
@@ -11206,7 +11210,7 @@
         <v>1E-3</v>
       </c>
       <c r="N158" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O158" t="s">
         <v>82</v>
@@ -11235,7 +11239,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="H159" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I159" t="s">
         <v>82</v>
@@ -11253,7 +11257,7 @@
         <v>0.02</v>
       </c>
       <c r="N159" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O159" t="s">
         <v>82</v>
@@ -11423,7 +11427,7 @@
         <v>0.215</v>
       </c>
       <c r="H163" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I163" t="s">
         <v>82</v>
@@ -11441,7 +11445,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="N163" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O163" t="s">
         <v>82</v>
@@ -11470,7 +11474,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="H164" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I164" t="s">
         <v>82</v>
@@ -11488,7 +11492,7 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="N164" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O164" t="s">
         <v>82</v>
@@ -11517,7 +11521,7 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="H165" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I165" t="s">
         <v>82</v>
@@ -11535,7 +11539,7 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="N165" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O165" t="s">
         <v>82</v>
@@ -11705,7 +11709,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="H169" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I169" t="s">
         <v>82</v>
@@ -11723,7 +11727,7 @@
         <v>0.70199999999999996</v>
       </c>
       <c r="N169" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O169" t="s">
         <v>82</v>
@@ -11752,7 +11756,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="H170" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I170" t="s">
         <v>82</v>
@@ -11770,7 +11774,7 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="N170" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O170" t="s">
         <v>82</v>
@@ -11799,7 +11803,7 @@
         <v>0.55200000000000005</v>
       </c>
       <c r="H171" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I171" t="s">
         <v>82</v>
@@ -11817,7 +11821,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="N171" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O171" t="s">
         <v>82</v>
@@ -11987,7 +11991,7 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="H175" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I175" t="s">
         <v>82</v>
@@ -12005,7 +12009,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="N175" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O175" t="s">
         <v>82</v>
@@ -12034,7 +12038,7 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="H176" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I176" t="s">
         <v>82</v>
@@ -12052,7 +12056,7 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="N176" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O176" t="s">
         <v>82</v>
@@ -12081,7 +12085,7 @@
         <v>0.3</v>
       </c>
       <c r="H177" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I177" t="s">
         <v>82</v>
@@ -12099,7 +12103,7 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="N177" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O177" t="s">
         <v>82</v>
@@ -12504,7 +12508,7 @@
         <v>250</v>
       </c>
       <c r="H188" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I188" t="s">
         <v>82</v>
@@ -12522,7 +12526,7 @@
         <v>251</v>
       </c>
       <c r="N188" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O188" t="s">
         <v>82</v>
@@ -12551,7 +12555,7 @@
         <v>253</v>
       </c>
       <c r="H189" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I189" t="s">
         <v>82</v>
@@ -12569,7 +12573,7 @@
         <v>254</v>
       </c>
       <c r="N189" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O189" t="s">
         <v>82</v>
@@ -12598,7 +12602,7 @@
         <v>532</v>
       </c>
       <c r="H190" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I190" t="s">
         <v>82</v>
@@ -12616,7 +12620,7 @@
         <v>257</v>
       </c>
       <c r="N190" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O190" t="s">
         <v>82</v>
@@ -12645,7 +12649,7 @@
         <v>533</v>
       </c>
       <c r="H191" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I191" t="s">
         <v>82</v>
@@ -12663,7 +12667,7 @@
         <v>534</v>
       </c>
       <c r="N191" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O191" t="s">
         <v>82</v>
@@ -12739,7 +12743,7 @@
         <v>262</v>
       </c>
       <c r="H194" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I194" t="s">
         <v>263</v>
@@ -12757,7 +12761,7 @@
         <v>266</v>
       </c>
       <c r="N194" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O194" t="s">
         <v>263</v>
@@ -12974,7 +12978,7 @@
         <v>272</v>
       </c>
       <c r="H199" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I199" t="s">
         <v>263</v>
@@ -12992,7 +12996,7 @@
         <v>277</v>
       </c>
       <c r="N199" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O199" t="s">
         <v>263</v>
@@ -13823,7 +13827,7 @@
         <v>302</v>
       </c>
       <c r="H220" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I220" t="s">
         <v>263</v>
@@ -13841,7 +13845,7 @@
         <v>38</v>
       </c>
       <c r="N220" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O220" t="s">
         <v>305</v>
@@ -13859,7 +13863,7 @@
         <v>38</v>
       </c>
       <c r="T220" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V220" t="s">
         <v>673</v>
@@ -13888,7 +13892,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H221" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I221" t="s">
         <v>304</v>
@@ -13906,7 +13910,7 @@
         <v>38</v>
       </c>
       <c r="N221" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O221" t="s">
         <v>304</v>
@@ -13921,7 +13925,7 @@
         <v>38</v>
       </c>
       <c r="T221" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V221" t="s">
         <v>673</v>
@@ -14003,7 +14007,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H224" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I224" t="s">
         <v>308</v>
@@ -14021,13 +14025,13 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N224" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O224" t="s">
         <v>308</v>
       </c>
       <c r="T224" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -14103,7 +14107,7 @@
         <v>312</v>
       </c>
       <c r="H226" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I226" t="s">
         <v>639</v>
@@ -14121,13 +14125,13 @@
         <v>311</v>
       </c>
       <c r="N226" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O226" t="s">
         <v>639</v>
       </c>
       <c r="T226" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -14153,7 +14157,7 @@
         <v>313</v>
       </c>
       <c r="H227" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I227" t="s">
         <v>639</v>
@@ -14171,13 +14175,13 @@
         <v>427</v>
       </c>
       <c r="N227" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O227" t="s">
         <v>639</v>
       </c>
       <c r="T227" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -17483,7 +17487,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H291" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I291" t="s">
         <v>386</v>
@@ -17501,7 +17505,7 @@
         <v>38</v>
       </c>
       <c r="N291" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O291" t="s">
         <v>386</v>
@@ -18146,7 +18150,7 @@
         <v>60</v>
       </c>
       <c r="H307" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I307" t="s">
         <v>263</v>
@@ -18164,7 +18168,7 @@
         <v>0.53</v>
       </c>
       <c r="N307" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O307" t="s">
         <v>263</v>
@@ -18334,7 +18338,7 @@
         <v>60</v>
       </c>
       <c r="H311" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I311" t="s">
         <v>263</v>
@@ -18352,7 +18356,7 @@
         <v>0.87</v>
       </c>
       <c r="N311" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O311" t="s">
         <v>263</v>
@@ -19051,7 +19055,7 @@
         <v>60</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I325" t="s">
         <v>553</v>
@@ -19066,7 +19070,7 @@
         <v>35</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O325" t="s">
         <v>553</v>
@@ -19084,7 +19088,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="T325" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U325" t="s">
         <v>553</v>
@@ -19115,6 +19119,12 @@
       <c r="G326">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="H326" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I326" t="s">
+        <v>553</v>
+      </c>
       <c r="J326">
         <v>6235</v>
       </c>
@@ -19127,6 +19137,12 @@
       <c r="M326">
         <v>7.8E-2</v>
       </c>
+      <c r="N326" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O326" t="s">
+        <v>553</v>
+      </c>
       <c r="P326">
         <v>6235</v>
       </c>
@@ -19139,7 +19155,12 @@
       <c r="S326" t="s">
         <v>60</v>
       </c>
-      <c r="T326" s="1"/>
+      <c r="T326" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="U326" t="s">
+        <v>553</v>
+      </c>
       <c r="V326" t="s">
         <v>673</v>
       </c>
@@ -23770,7 +23791,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I409" t="s">
         <v>82</v>
@@ -23788,7 +23809,7 @@
         <v>60</v>
       </c>
       <c r="N409" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O409" t="s">
         <v>82</v>
@@ -23817,7 +23838,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I410" t="s">
         <v>82</v>
@@ -23835,7 +23856,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N410" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O410" t="s">
         <v>82</v>
@@ -23864,7 +23885,7 @@
         <v>60</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I411" t="s">
         <v>82</v>
@@ -23882,7 +23903,7 @@
         <v>0.12</v>
       </c>
       <c r="N411" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O411" t="s">
         <v>82</v>
@@ -23911,7 +23932,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I412" t="s">
         <v>82</v>
@@ -23929,7 +23950,7 @@
         <v>60</v>
       </c>
       <c r="N412" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O412" t="s">
         <v>82</v>
@@ -23958,7 +23979,7 @@
         <v>60</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I413" t="s">
         <v>82</v>
@@ -23976,7 +23997,7 @@
         <v>60</v>
       </c>
       <c r="N413" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O413" t="s">
         <v>82</v>
@@ -24005,7 +24026,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I414" t="s">
         <v>82</v>
@@ -24023,7 +24044,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N414" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O414" t="s">
         <v>82</v>
@@ -24052,7 +24073,7 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I415" t="s">
         <v>82</v>
@@ -24070,7 +24091,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="N415" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O415" t="s">
         <v>82</v>
@@ -24099,7 +24120,7 @@
         <v>0.01</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I416" t="s">
         <v>82</v>
@@ -24117,7 +24138,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="N416" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O416" t="s">
         <v>82</v>
@@ -24146,7 +24167,7 @@
         <v>60</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I417" t="s">
         <v>82</v>
@@ -24164,7 +24185,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="N417" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O417" t="s">
         <v>82</v>
@@ -24193,7 +24214,7 @@
         <v>60</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I418" t="s">
         <v>82</v>
@@ -24211,7 +24232,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="N418" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O418" t="s">
         <v>82</v>
@@ -24240,7 +24261,7 @@
         <v>60</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I419" t="s">
         <v>82</v>
@@ -24258,7 +24279,7 @@
         <v>0.108</v>
       </c>
       <c r="N419" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O419" t="s">
         <v>82</v>
@@ -24287,7 +24308,7 @@
         <v>60</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I420" t="s">
         <v>82</v>
@@ -24305,7 +24326,7 @@
         <v>0.85</v>
       </c>
       <c r="N420" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O420" t="s">
         <v>82</v>
@@ -24334,7 +24355,7 @@
         <v>60</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I421" t="s">
         <v>82</v>
@@ -24352,7 +24373,7 @@
         <v>38</v>
       </c>
       <c r="N421" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O421" t="s">
         <v>82</v>
@@ -24381,7 +24402,7 @@
         <v>60</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I422" t="s">
         <v>82</v>
@@ -24399,7 +24420,7 @@
         <v>38</v>
       </c>
       <c r="N422" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O422" t="s">
         <v>82</v>
@@ -24428,7 +24449,7 @@
         <v>38</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I423" t="s">
         <v>82</v>
@@ -24446,7 +24467,7 @@
         <v>60</v>
       </c>
       <c r="N423" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O423" t="s">
         <v>82</v>
@@ -24475,7 +24496,7 @@
         <v>38</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I424" t="s">
         <v>82</v>
@@ -24493,7 +24514,7 @@
         <v>38</v>
       </c>
       <c r="N424" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O424" t="s">
         <v>82</v>
@@ -24522,7 +24543,7 @@
         <v>38</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I425" t="s">
         <v>82</v>
@@ -24540,7 +24561,7 @@
         <v>338</v>
       </c>
       <c r="N425" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O425" t="s">
         <v>82</v>
@@ -24569,7 +24590,7 @@
         <v>38</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I426" t="s">
         <v>82</v>
@@ -24587,7 +24608,7 @@
         <v>38</v>
       </c>
       <c r="N426" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O426" t="s">
         <v>82</v>
@@ -24616,7 +24637,7 @@
         <v>38</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I427" t="s">
         <v>82</v>
@@ -24634,7 +24655,7 @@
         <v>38</v>
       </c>
       <c r="N427" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O427" t="s">
         <v>82</v>
@@ -24663,7 +24684,7 @@
         <v>38</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I428" t="s">
         <v>82</v>
@@ -24681,7 +24702,7 @@
         <v>338</v>
       </c>
       <c r="N428" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O428" t="s">
         <v>82</v>
@@ -24710,7 +24731,7 @@
         <v>38</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I429" t="s">
         <v>82</v>
@@ -24728,7 +24749,7 @@
         <v>38</v>
       </c>
       <c r="N429" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O429" t="s">
         <v>82</v>
@@ -24757,7 +24778,7 @@
         <v>38</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I430" t="s">
         <v>82</v>
@@ -24775,7 +24796,7 @@
         <v>38</v>
       </c>
       <c r="N430" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O430" t="s">
         <v>82</v>
@@ -24804,7 +24825,7 @@
         <v>38</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I431" t="s">
         <v>82</v>
@@ -24822,7 +24843,7 @@
         <v>38</v>
       </c>
       <c r="N431" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O431" t="s">
         <v>82</v>
@@ -24851,7 +24872,7 @@
         <v>38</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I432" t="s">
         <v>82</v>
@@ -24869,7 +24890,7 @@
         <v>38</v>
       </c>
       <c r="N432" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O432" t="s">
         <v>82</v>
@@ -24898,7 +24919,7 @@
         <v>338</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I433" t="s">
         <v>82</v>
@@ -24916,7 +24937,7 @@
         <v>38</v>
       </c>
       <c r="N433" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O433" t="s">
         <v>82</v>
@@ -24945,7 +24966,7 @@
         <v>338</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I434" t="s">
         <v>82</v>
@@ -24963,7 +24984,7 @@
         <v>38</v>
       </c>
       <c r="N434" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O434" t="s">
         <v>82</v>
@@ -28472,7 +28493,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="500" spans="1:15">
+    <row r="500" spans="1:15" ht="16">
       <c r="A500" t="s">
         <v>472</v>
       </c>
@@ -28519,7 +28540,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:15" ht="16">
       <c r="A501" t="s">
         <v>472</v>
       </c>
